--- a/data/trans_dic/P2404-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P2404-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>1,76; 10,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>0,79; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,9; 5,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,04; 3,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,57; 2,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,14; 3,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>0,15; 1,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,74; 2,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,34; 1,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,71; 2,27</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,19; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,25; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,15; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0,19; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,09; 0,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,78; 1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,66; 1,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,65; 1,61</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,44; 1,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>2,5; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,12; 3,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,43; 2,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,51; 2,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,25; 1,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,59; 1,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,83; 3,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,83; 2,05</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>2,17; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,58; 3,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,77; 5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,95; 2,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,17; 1,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,63; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,82; 3,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,89; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,78; 3,27</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,8; 2,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,83; 3,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,0; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,65; 1,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,28; 0,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,42; 1,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,29; 1,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,16; 1,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,28; 1,91</t>
         </is>
       </c>
     </row>
